--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Icam1-Itgal.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Icam1-Itgal.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>99.11651099999999</v>
+        <v>5.828753</v>
       </c>
       <c r="H2">
-        <v>297.349533</v>
+        <v>17.486259</v>
       </c>
       <c r="I2">
-        <v>0.799346251215574</v>
+        <v>0.1911291943607339</v>
       </c>
       <c r="J2">
-        <v>0.799346251215574</v>
+        <v>0.1911291943607339</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -552,28 +552,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>21.087087</v>
+        <v>0.01569233333333333</v>
       </c>
       <c r="N2">
-        <v>63.261261</v>
+        <v>0.047077</v>
       </c>
       <c r="O2">
-        <v>0.9808818221599021</v>
+        <v>0.03693539111407157</v>
       </c>
       <c r="P2">
-        <v>0.9808818221599021</v>
+        <v>0.03693539111407157</v>
       </c>
       <c r="Q2">
-        <v>2090.078490593457</v>
+        <v>0.09146673499366666</v>
       </c>
       <c r="R2">
-        <v>18810.70641534111</v>
+        <v>0.823200614943</v>
       </c>
       <c r="S2">
-        <v>0.7840642074290191</v>
+        <v>0.007059431547031109</v>
       </c>
       <c r="T2">
-        <v>0.7840642074290191</v>
+        <v>0.007059431547031109</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>99.11651099999999</v>
+        <v>5.828753</v>
       </c>
       <c r="H3">
-        <v>297.349533</v>
+        <v>17.486259</v>
       </c>
       <c r="I3">
-        <v>0.799346251215574</v>
+        <v>0.1911291943607339</v>
       </c>
       <c r="J3">
-        <v>0.799346251215574</v>
+        <v>0.1911291943607339</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,25 +617,25 @@
         <v>0.3230143333333333</v>
       </c>
       <c r="N3">
-        <v>0.969043</v>
+        <v>0.9690430000000001</v>
       </c>
       <c r="O3">
-        <v>0.01502525635066456</v>
+        <v>0.7602859615386125</v>
       </c>
       <c r="P3">
-        <v>0.01502525635066456</v>
+        <v>0.7602859615386125</v>
       </c>
       <c r="Q3">
-        <v>32.016053722991</v>
+        <v>1.882770764459667</v>
       </c>
       <c r="R3">
-        <v>288.144483506919</v>
+        <v>16.944936880137</v>
       </c>
       <c r="S3">
-        <v>0.01201038233745671</v>
+        <v>0.1453128433126509</v>
       </c>
       <c r="T3">
-        <v>0.01201038233745671</v>
+        <v>0.1453128433126509</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>99.11651099999999</v>
+        <v>5.828753</v>
       </c>
       <c r="H4">
-        <v>297.349533</v>
+        <v>17.486259</v>
       </c>
       <c r="I4">
-        <v>0.799346251215574</v>
+        <v>0.1911291943607339</v>
       </c>
       <c r="J4">
-        <v>0.799346251215574</v>
+        <v>0.1911291943607339</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -676,28 +676,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.08799000000000001</v>
+        <v>0.08615233333333333</v>
       </c>
       <c r="N4">
-        <v>0.26397</v>
+        <v>0.258457</v>
       </c>
       <c r="O4">
-        <v>0.00409292148943331</v>
+        <v>0.202778647347316</v>
       </c>
       <c r="P4">
-        <v>0.00409292148943331</v>
+        <v>0.202778647347316</v>
       </c>
       <c r="Q4">
-        <v>8.72126180289</v>
+        <v>0.5021606713736666</v>
       </c>
       <c r="R4">
-        <v>78.49135622601</v>
+        <v>4.519446042363</v>
       </c>
       <c r="S4">
-        <v>0.00327166144909818</v>
+        <v>0.03875691950105188</v>
       </c>
       <c r="T4">
-        <v>0.00327166144909818</v>
+        <v>0.03875691950105188</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>70.74855599999999</v>
       </c>
       <c r="I5">
-        <v>0.1901889417714845</v>
+        <v>0.7732994524709527</v>
       </c>
       <c r="J5">
-        <v>0.1901889417714845</v>
+        <v>0.7732994524709526</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -738,28 +738,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>21.087087</v>
+        <v>0.01569233333333333</v>
       </c>
       <c r="N5">
-        <v>63.261261</v>
+        <v>0.047077</v>
       </c>
       <c r="O5">
-        <v>0.9808818221599021</v>
+        <v>0.03693539111407157</v>
       </c>
       <c r="P5">
-        <v>0.9808818221599021</v>
+        <v>0.03693539111407157</v>
       </c>
       <c r="Q5">
-        <v>497.293651832124</v>
+        <v>0.3700699745346666</v>
       </c>
       <c r="R5">
-        <v>4475.642866489115</v>
+        <v>3.330629770812</v>
       </c>
       <c r="S5">
-        <v>0.1865528757594772</v>
+        <v>0.02856211772531203</v>
       </c>
       <c r="T5">
-        <v>0.1865528757594772</v>
+        <v>0.02856211772531203</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>70.74855599999999</v>
       </c>
       <c r="I6">
-        <v>0.1901889417714845</v>
+        <v>0.7732994524709527</v>
       </c>
       <c r="J6">
-        <v>0.1901889417714845</v>
+        <v>0.7732994524709526</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,25 +803,25 @@
         <v>0.3230143333333333</v>
       </c>
       <c r="N6">
-        <v>0.969043</v>
+        <v>0.9690430000000001</v>
       </c>
       <c r="O6">
-        <v>0.01502525635066456</v>
+        <v>0.7602859615386125</v>
       </c>
       <c r="P6">
-        <v>0.01502525635066456</v>
+        <v>0.7602859615386125</v>
       </c>
       <c r="Q6">
         <v>7.617599216878666</v>
       </c>
       <c r="R6">
-        <v>68.55839295190799</v>
+        <v>68.558392951908</v>
       </c>
       <c r="S6">
-        <v>0.002857637605178169</v>
+        <v>0.5879287177791608</v>
       </c>
       <c r="T6">
-        <v>0.002857637605178169</v>
+        <v>0.5879287177791608</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>70.74855599999999</v>
       </c>
       <c r="I7">
-        <v>0.1901889417714845</v>
+        <v>0.7732994524709527</v>
       </c>
       <c r="J7">
-        <v>0.1901889417714845</v>
+        <v>0.7732994524709526</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -862,28 +862,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.08799000000000001</v>
+        <v>0.08615233333333333</v>
       </c>
       <c r="N7">
-        <v>0.26397</v>
+        <v>0.258457</v>
       </c>
       <c r="O7">
-        <v>0.00409292148943331</v>
+        <v>0.202778647347316</v>
       </c>
       <c r="P7">
-        <v>0.00409292148943331</v>
+        <v>0.202778647347316</v>
       </c>
       <c r="Q7">
-        <v>2.07505514748</v>
+        <v>2.031717726454667</v>
       </c>
       <c r="R7">
-        <v>18.67549632732</v>
+        <v>18.285459538092</v>
       </c>
       <c r="S7">
-        <v>0.0007784284068290895</v>
+        <v>0.1568086169664799</v>
       </c>
       <c r="T7">
-        <v>0.0007784284068290895</v>
+        <v>0.1568086169664798</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.297604333333333</v>
+        <v>1.084798333333333</v>
       </c>
       <c r="H8">
-        <v>3.892813</v>
+        <v>3.254395</v>
       </c>
       <c r="I8">
-        <v>0.01046480701294141</v>
+        <v>0.03557135316831352</v>
       </c>
       <c r="J8">
-        <v>0.01046480701294141</v>
+        <v>0.03557135316831351</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -924,28 +924,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>21.087087</v>
+        <v>0.01569233333333333</v>
       </c>
       <c r="N8">
-        <v>63.261261</v>
+        <v>0.047077</v>
       </c>
       <c r="O8">
-        <v>0.9808818221599021</v>
+        <v>0.03693539111407157</v>
       </c>
       <c r="P8">
-        <v>0.9808818221599021</v>
+        <v>0.03693539111407157</v>
       </c>
       <c r="Q8">
-        <v>27.362695468577</v>
+        <v>0.01702301704611111</v>
       </c>
       <c r="R8">
-        <v>246.264259217193</v>
+        <v>0.153207153415</v>
       </c>
       <c r="S8">
-        <v>0.01026473897140569</v>
+        <v>0.001313841841728429</v>
       </c>
       <c r="T8">
-        <v>0.01026473897140569</v>
+        <v>0.001313841841728428</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.297604333333333</v>
+        <v>1.084798333333333</v>
       </c>
       <c r="H9">
-        <v>3.892813</v>
+        <v>3.254395</v>
       </c>
       <c r="I9">
-        <v>0.01046480701294141</v>
+        <v>0.03557135316831352</v>
       </c>
       <c r="J9">
-        <v>0.01046480701294141</v>
+        <v>0.03557135316831351</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,25 +989,25 @@
         <v>0.3230143333333333</v>
       </c>
       <c r="N9">
-        <v>0.969043</v>
+        <v>0.9690430000000001</v>
       </c>
       <c r="O9">
-        <v>0.01502525635066456</v>
+        <v>0.7602859615386125</v>
       </c>
       <c r="P9">
-        <v>0.01502525635066456</v>
+        <v>0.7602859615386125</v>
       </c>
       <c r="Q9">
-        <v>0.4191447986621111</v>
+        <v>0.3504054104427778</v>
       </c>
       <c r="R9">
-        <v>3.772303187959</v>
+        <v>3.153648693985001</v>
       </c>
       <c r="S9">
-        <v>0.0001572364080296769</v>
+        <v>0.02704440044680081</v>
       </c>
       <c r="T9">
-        <v>0.0001572364080296769</v>
+        <v>0.02704440044680081</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.297604333333333</v>
+        <v>1.084798333333333</v>
       </c>
       <c r="H10">
-        <v>3.892813</v>
+        <v>3.254395</v>
       </c>
       <c r="I10">
-        <v>0.01046480701294141</v>
+        <v>0.03557135316831352</v>
       </c>
       <c r="J10">
-        <v>0.01046480701294141</v>
+        <v>0.03557135316831351</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1048,28 +1048,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.08799000000000001</v>
+        <v>0.08615233333333333</v>
       </c>
       <c r="N10">
-        <v>0.26397</v>
+        <v>0.258457</v>
       </c>
       <c r="O10">
-        <v>0.00409292148943331</v>
+        <v>0.202778647347316</v>
       </c>
       <c r="P10">
-        <v>0.00409292148943331</v>
+        <v>0.202778647347316</v>
       </c>
       <c r="Q10">
-        <v>0.11417620529</v>
+        <v>0.09345790761277778</v>
       </c>
       <c r="R10">
-        <v>1.02758584761</v>
+        <v>0.841121168515</v>
       </c>
       <c r="S10">
-        <v>4.283163350604029E-05</v>
+        <v>0.007213110879784278</v>
       </c>
       <c r="T10">
-        <v>4.28316335060403E-05</v>
+        <v>0.007213110879784277</v>
       </c>
     </row>
   </sheetData>
